--- a/biology/Médecine/Louis_Hubert_Farabeuf/Louis_Hubert_Farabeuf.xlsx
+++ b/biology/Médecine/Louis_Hubert_Farabeuf/Louis_Hubert_Farabeuf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Hubert Farabeuf, né le 6 mai 1841 à Bannost et mort le 13 août 1910 à Beton-Bazoches, est un chirurgien français à qui l'on attribue l'introduction de l'hygiène dans l'enseignement médical français. Sa statue s'élève dans la cour centrale de  l'École nationale de médecine de Paris, dont le Grand Amphithéâtre porte également son nom.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fils de cultivateurs, il devient externe des hôpitaux de Paris en 1861. Il est nommé Interne des hôpitaux de Paris au concours de 1864, aide d'anatomie en 1868 et prosecteur en anatomie en 1872. Devenu professeur agrégé de médecine en 1876 et chef de travaux anatomiques en 1878, il inaugure l'enseignement de Médecine opératoire à la Faculté de Médecine de Paris. Il rédige plusieurs opuscules (précis) de chirurgie et invente un certain nombre d'instruments médicaux[1] encore utilisés aujourd'hui (pince de Farabeuf, écarteurs de Farabeuf). Il est promu professeur titulaire d'anatomie en 1887.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fils de cultivateurs, il devient externe des hôpitaux de Paris en 1861. Il est nommé Interne des hôpitaux de Paris au concours de 1864, aide d'anatomie en 1868 et prosecteur en anatomie en 1872. Devenu professeur agrégé de médecine en 1876 et chef de travaux anatomiques en 1878, il inaugure l'enseignement de Médecine opératoire à la Faculté de Médecine de Paris. Il rédige plusieurs opuscules (précis) de chirurgie et invente un certain nombre d'instruments médicaux encore utilisés aujourd'hui (pince de Farabeuf, écarteurs de Farabeuf). Il est promu professeur titulaire d'anatomie en 1887.
 Il est conseiller général pour le canton de Villiers-Saint-Georges de 1878 à 1888.
 Il meurt des suites d’une hernie étranglée, opérée par un de ses élèves à domicile comme cela se pratiquait encore à l’époque.
 Un poème est inscrit sur sa tombe à Beton-Bazoches :
@@ -548,7 +562,9 @@
           <t>Farabeuf: personnage de fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses textes vigoureux et ses descriptions des techniques d'amputation ont attiré l'attention de l'écrivain mexicain Salvador Elizondo.  Elizondo a entremêlé, dans son livre Farabeuf ou la chronique d'un instant (1965), des évènements empruntés aux vies de Dupuytren, Muybridge, Daguerre et Nadar, parmi d'autres. Ce n'est pas une biographie.</t>
         </is>
@@ -578,7 +594,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> De la Confection des moignons, et de quelques moignons en particulier (poignet, coude, jambe) [annexes : cathétérisme œsophagien, statistique de fractures par armes à feu] , impr. de A. Parent (Paris), 1871,  lire en ligne sur Gallica
 De l'épiderme et des épithéliums, G. Masson (Paris), 1872, lire en ligne sur Gallica
@@ -620,13 +638,15 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Instruments :
 écarteur de Farabeuf
 scie de Farabeuf : scie à amputation à lames tournantes
 davier de Farabeuf
-rugine droite ou courbe de Farabeuf[2]
+rugine droite ou courbe de Farabeuf
 cisaille de Farabeuf
 bistouri de Farabeuf
 pince de Farabeuf
@@ -635,7 +655,7 @@
 collier de Farabeuf
 rail plein et rail creux de Farabeuf
 Anatomie :
-triangle de Farabeuf : région latérale du cou limitée en haut par le nerf hypoglosse formant la base supérieure, la veine jugulaire interne en arrière et la veine faciale commune en avant[3].
+triangle de Farabeuf : région latérale du cou limitée en haut par le nerf hypoglosse formant la base supérieure, la veine jugulaire interne en arrière et la veine faciale commune en avant.
 tronc veineux de Farabeuf : branche de la veine jugulaire interne.
 tronc artériel de Farabeuf : tronc artériel thyro-cervical, collatérale de l'artère sous-clavière droite.
 lames sacro-recto-génito-pubiennes de Farabeuf
@@ -643,9 +663,9 @@
 deltoïde fessier de Farabeuf : ensemble de muscles formés par le grand fessier en arrière , du tenseur du fascia lata  en avant et du fascia lata sur lequel ils s'insèrent, permettant l'abduction de la hanche.
 heurtoir de Farabeuf : saillie osseuse à la face médiale et inférieure de la clavicule.
 Signe clinique :
-signe de Farabeuf[4],[5]
+signe de Farabeuf,
 Manœuvre de Farabeuf :
-Réduction d'une luxation postérieure de l'articulation métacarpophalangienne du pouce fait suite à un traumatisme en hyper-extension[6].</t>
+Réduction d'une luxation postérieure de l'articulation métacarpophalangienne du pouce fait suite à un traumatisme en hyper-extension.</t>
         </is>
       </c>
     </row>
